--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -451,687 +451,927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>160910</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>88.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>91.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008846</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008847</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>000628</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>大成高新技术产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>22.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>009069</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>大成睿鑫股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>090003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>大成蓝筹稳健混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>010178</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>大成企业能力驱动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>78.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>008271</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>大成优势企业混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.47</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.07</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000628</t>
+          <t>011066</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成高新技术产业股票A</t>
+          <t>大成高新技术产业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>85.62</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>8.23</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011066</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成高新技术产业股票C</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010178</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成企业能力驱动混合A</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.29</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010179</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成企业能力驱动混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.29</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1500,15 +1860,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>54.25</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>050012</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时策略混合</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>75.60</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>090003</t>
+          <t>050012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成蓝筹稳健混合</t>
+          <t>博时策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>009070</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>大成睿鑫股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>008272</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>大成优势企业混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>9.42</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>3</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008872</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009069</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成睿鑫股票A</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009070</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成睿鑫股票C</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008271</t>
+          <t>010179</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成优势企业混合A</t>
+          <t>大成企业能力驱动混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008272</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大成优势企业混合C</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>9.42</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>2</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009653</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009654</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3500,4 +3501,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4507,4 +4508,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4516,7 +4517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4527,17 +4528,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4547,14 +4568,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.91</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4563,14 +4606,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.99</v>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4579,14 +4644,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.65</v>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8990</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4595,13 +4682,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8448</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5637,7 +5638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5648,17 +5649,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5668,14 +5689,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.45</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5684,14 +5727,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.91</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5700,14 +5765,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.99</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5548</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5716,14 +5803,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.65</v>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5732,13 +5841,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6264,7 +6265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6275,17 +6276,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6295,14 +6316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.92</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6311,14 +6354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.45</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6327,14 +6392,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.91</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6343,14 +6430,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.99</v>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6359,14 +6468,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.65</v>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6375,13 +6506,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>4.83</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>5.92</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>12.45</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>6.91</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>7.99</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2895,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3901,7 +4960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5021,7 +6080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6027,7 +7086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603989-艾华集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>5.01</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>4.83</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.92</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>12.45</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>6.91</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>7.99</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,960 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1564,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1658,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2208,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2834,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3954,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4960,7 +6761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6080,7 +7881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7084,934 +8885,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2403</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0509</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9757</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7120</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6344</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4050</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2807</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2338</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1477</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0729</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008846</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008847</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>